--- a/data/financial_statements/soci/FTNT.xlsx
+++ b/data/financial_statements/soci/FTNT.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1150000000</v>
+        <v>1149500000</v>
       </c>
       <c r="C2">
-        <v>1030000000</v>
+        <v>1030100000</v>
       </c>
       <c r="D2">
-        <v>955000000</v>
+        <v>954800000</v>
       </c>
       <c r="E2">
-        <v>964000000</v>
+        <v>963600000</v>
       </c>
       <c r="F2">
-        <v>867000000</v>
+        <v>867200000</v>
       </c>
       <c r="G2">
         <v>801100000</v>
@@ -739,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.3264</v>
+        <v>0.3255</v>
       </c>
       <c r="C3">
-        <v>0.2857</v>
+        <v>0.2859</v>
       </c>
       <c r="D3">
-        <v>0.3445</v>
+        <v>0.3442</v>
       </c>
       <c r="E3">
-        <v>0.2888</v>
+        <v>0.2882</v>
       </c>
       <c r="F3">
-        <v>0.3316</v>
+        <v>0.3319</v>
       </c>
       <c r="G3">
         <v>0.2971</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>288000000</v>
+        <v>283000000</v>
       </c>
       <c r="C4">
-        <v>257000000</v>
+        <v>250800000</v>
       </c>
       <c r="D4">
-        <v>260000000</v>
+        <v>253800000</v>
       </c>
       <c r="E4">
-        <v>235000000</v>
+        <v>228300000</v>
       </c>
       <c r="F4">
-        <v>216000000</v>
+        <v>211200000</v>
       </c>
       <c r="G4">
         <v>186900000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>861000000</v>
+        <v>866500000</v>
       </c>
       <c r="C5">
-        <v>773000000</v>
+        <v>779300000</v>
       </c>
       <c r="D5">
-        <v>695000000</v>
+        <v>701000000</v>
       </c>
       <c r="E5">
-        <v>729000000</v>
+        <v>735300000</v>
       </c>
       <c r="F5">
-        <v>651000000</v>
+        <v>656000000</v>
       </c>
       <c r="G5">
         <v>614200000</v>
@@ -1105,23 +1216,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>134000000</v>
+        <v>134300000</v>
       </c>
       <c r="C6">
-        <v>124000000</v>
+        <v>124300000</v>
       </c>
       <c r="D6">
-        <v>125000000</v>
+        <v>124900000</v>
       </c>
       <c r="E6">
-        <v>113000000</v>
+        <v>112600000</v>
       </c>
       <c r="F6">
-        <v>108000000</v>
+        <v>107800000</v>
       </c>
       <c r="G6">
         <v>106600000</v>
@@ -1227,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>467800000</v>
@@ -1243,7 +1354,7 @@
         <v>408999900</v>
       </c>
       <c r="F7">
-        <v>378000000</v>
+        <v>382900000</v>
       </c>
       <c r="G7">
         <v>361300000</v>
@@ -1349,8 +1460,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>265500000</v>
@@ -1471,8 +1582,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>5000000</v>
@@ -1494,23 +1605,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>5000000</v>
+        <v>4500000</v>
       </c>
       <c r="C10">
-        <v>2000000</v>
+        <v>4500000</v>
       </c>
       <c r="D10">
-        <v>1000000</v>
+        <v>4500000</v>
       </c>
       <c r="E10">
-        <v>1000000</v>
+        <v>4500000</v>
       </c>
       <c r="F10">
-        <v>1000000</v>
+        <v>4600000</v>
       </c>
       <c r="G10">
         <v>4500000</v>
@@ -1535,23 +1646,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-800000</v>
       </c>
       <c r="C11">
-        <v>-8000000</v>
+        <v>-11400000</v>
       </c>
       <c r="D11">
-        <v>-8000000</v>
+        <v>-12300000</v>
       </c>
       <c r="E11">
-        <v>-3000000</v>
+        <v>-7600000</v>
       </c>
       <c r="F11">
-        <v>-5000000</v>
+        <v>-9700000</v>
       </c>
       <c r="G11">
         <v>-2500000</v>
@@ -1657,23 +1768,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>265000000</v>
+        <v>264700000</v>
       </c>
       <c r="C12">
-        <v>184000000</v>
+        <v>183900000</v>
       </c>
       <c r="D12">
-        <v>139000000</v>
+        <v>138700000</v>
       </c>
       <c r="E12">
-        <v>207000000</v>
+        <v>207300000</v>
       </c>
       <c r="F12">
-        <v>157000000</v>
+        <v>156700000</v>
       </c>
       <c r="G12">
         <v>145000000</v>
@@ -1779,23 +1890,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>27000000</v>
+        <v>27300000</v>
       </c>
       <c r="C13">
-        <v>2000000</v>
+        <v>2400000</v>
       </c>
       <c r="D13">
-        <v>-8000000</v>
+        <v>-8100000</v>
       </c>
       <c r="E13">
-        <v>4000000</v>
+        <v>3700000</v>
       </c>
       <c r="F13">
-        <v>-9000000</v>
+        <v>-9300000</v>
       </c>
       <c r="G13">
         <v>7500000</v>
@@ -1901,8 +2012,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>237400000</v>
@@ -2023,8 +2134,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-6300000</v>
@@ -2043,8 +2154,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2114,8 +2225,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>-500000</v>
@@ -2134,23 +2245,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>232000000</v>
+        <v>231600000</v>
       </c>
       <c r="C18">
-        <v>174000000</v>
+        <v>173500000</v>
       </c>
       <c r="D18">
-        <v>138000000</v>
+        <v>138400000</v>
       </c>
       <c r="E18">
         <v>199000000</v>
       </c>
       <c r="F18">
-        <v>163000000</v>
+        <v>163100000</v>
       </c>
       <c r="G18">
         <v>137500000</v>
@@ -2256,23 +2367,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.29</v>
       </c>
       <c r="C19">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D19">
-        <v>0.17</v>
+        <v>0.172</v>
       </c>
       <c r="E19">
-        <v>0.24</v>
+        <v>0.244</v>
       </c>
       <c r="F19">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
         <v>0.168</v>
@@ -2378,8 +2489,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0.29</v>
@@ -2394,7 +2505,7 @@
         <v>0.238</v>
       </c>
       <c r="F20">
-        <v>0.97</v>
+        <v>0.194</v>
       </c>
       <c r="G20">
         <v>0.164</v>
@@ -2500,23 +2611,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>786000000</v>
+        <v>786200000</v>
       </c>
       <c r="C21">
-        <v>795000000</v>
+        <v>795400000</v>
       </c>
       <c r="D21">
-        <v>804000000</v>
+        <v>803500000</v>
       </c>
       <c r="E21">
-        <v>815000000</v>
+        <v>816000000</v>
       </c>
       <c r="F21">
-        <v>818000000</v>
+        <v>817700000</v>
       </c>
       <c r="G21">
         <v>816700000</v>
@@ -2622,23 +2733,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>799000000</v>
+        <v>798600000</v>
       </c>
       <c r="C22">
-        <v>810000000</v>
+        <v>810100000</v>
       </c>
       <c r="D22">
         <v>821000000</v>
       </c>
       <c r="E22">
-        <v>835000000</v>
+        <v>835500000</v>
       </c>
       <c r="F22">
-        <v>839000000</v>
+        <v>838600000</v>
       </c>
       <c r="G22">
         <v>835400000</v>
@@ -2744,23 +2855,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.7487</v>
+        <v>0.7538</v>
       </c>
       <c r="C23">
-        <v>0.7504999999999999</v>
+        <v>0.7565</v>
       </c>
       <c r="D23">
-        <v>0.7277</v>
+        <v>0.7342</v>
       </c>
       <c r="E23">
-        <v>0.7562</v>
+        <v>0.7631</v>
       </c>
       <c r="F23">
-        <v>0.7509</v>
+        <v>0.7565</v>
       </c>
       <c r="G23">
         <v>0.7667</v>
@@ -2866,11 +2977,11 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.2309</v>
+        <v>0.231</v>
       </c>
       <c r="C24">
         <v>0.1896</v>
@@ -2879,7 +2990,7 @@
         <v>0.1581</v>
       </c>
       <c r="E24">
-        <v>0.2229</v>
+        <v>0.223</v>
       </c>
       <c r="F24">
         <v>0.1919</v>
@@ -2988,23 +3099,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.2304</v>
+        <v>0.2303</v>
       </c>
       <c r="C25">
-        <v>0.1786</v>
+        <v>0.1785</v>
       </c>
       <c r="D25">
-        <v>0.1455</v>
+        <v>0.1453</v>
       </c>
       <c r="E25">
-        <v>0.2147</v>
+        <v>0.2151</v>
       </c>
       <c r="F25">
-        <v>0.1811</v>
+        <v>0.1807</v>
       </c>
       <c r="G25">
         <v>0.181</v>
@@ -3110,23 +3221,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>0.2017</v>
+        <v>0.2015</v>
       </c>
       <c r="C26">
-        <v>0.1689</v>
+        <v>0.1684</v>
       </c>
       <c r="D26">
-        <v>0.1445</v>
+        <v>0.145</v>
       </c>
       <c r="E26">
-        <v>0.2064</v>
+        <v>0.2065</v>
       </c>
       <c r="F26">
-        <v>0.188</v>
+        <v>0.1881</v>
       </c>
       <c r="G26">
         <v>0.1716</v>
@@ -3232,23 +3343,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>291000000</v>
+        <v>349400000</v>
       </c>
       <c r="C27">
-        <v>219000000</v>
+        <v>276100000</v>
       </c>
       <c r="D27">
-        <v>175000000</v>
+        <v>230699900</v>
       </c>
       <c r="E27">
-        <v>239000000</v>
+        <v>291300300</v>
       </c>
       <c r="F27">
-        <v>188000000</v>
+        <v>236299900</v>
       </c>
       <c r="G27">
         <v>210200000</v>
@@ -3354,8 +3465,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>265500000</v>
@@ -3476,8 +3587,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>231100000</v>
@@ -3598,23 +3709,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>231000000</v>
+        <v>231100000</v>
       </c>
       <c r="C30">
-        <v>173000000</v>
+        <v>173400000</v>
       </c>
       <c r="D30">
-        <v>138000000</v>
+        <v>138300000</v>
       </c>
       <c r="E30">
-        <v>199000000</v>
+        <v>198800000</v>
       </c>
       <c r="F30">
-        <v>163000000</v>
+        <v>163200000</v>
       </c>
       <c r="G30">
         <v>137500000</v>
@@ -3720,8 +3831,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.2939</v>
@@ -3842,8 +3953,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.2894</v>
@@ -3964,8 +4075,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0.2939</v>
@@ -4086,8 +4197,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0.2894</v>
@@ -4208,8 +4319,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>798600000</v>
@@ -4330,23 +4441,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.253</v>
+        <v>0.304</v>
       </c>
       <c r="C36">
-        <v>0.2126</v>
+        <v>0.268</v>
       </c>
       <c r="D36">
-        <v>0.1832</v>
+        <v>0.2416</v>
       </c>
       <c r="E36">
-        <v>0.2479</v>
+        <v>0.3023</v>
       </c>
       <c r="F36">
-        <v>0.2168</v>
+        <v>0.2725</v>
       </c>
       <c r="G36">
         <v>0.2624</v>
@@ -4452,23 +4563,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.42</v>
+        <v>0.4202</v>
       </c>
       <c r="C37">
         <v>0.314</v>
       </c>
       <c r="D37">
-        <v>0.4148</v>
+        <v>0.4149</v>
       </c>
       <c r="E37">
-        <v>0.3805</v>
+        <v>0.3807</v>
       </c>
       <c r="F37">
-        <v>0.46</v>
+        <v>0.4599</v>
       </c>
       <c r="G37">
         <v>0.522</v>
